--- a/data/trans_orig/P05A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>246489</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>223582</v>
+        <v>224750</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>266964</v>
+        <v>267958</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5438920976415748</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4933478709331238</v>
+        <v>0.4959236954101284</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5890713108191235</v>
+        <v>0.5912654384806705</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>240</v>
@@ -764,19 +764,19 @@
         <v>245335</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>224522</v>
+        <v>224509</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>265001</v>
+        <v>264549</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5715881022159891</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5230988368724538</v>
+        <v>0.5230672634777274</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6174061152058441</v>
+        <v>0.6163544790889234</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>481</v>
@@ -785,19 +785,19 @@
         <v>491823</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>462572</v>
+        <v>463683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>521380</v>
+        <v>520835</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5573638122184397</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5242138540340633</v>
+        <v>0.5254732293966995</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5908596643867245</v>
+        <v>0.5902415122385956</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>156377</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136588</v>
+        <v>135420</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>178658</v>
+        <v>177685</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3450552525092314</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3013904256175933</v>
+        <v>0.2988117740474275</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3942205286723384</v>
+        <v>0.3920719804616727</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>135</v>
@@ -835,19 +835,19 @@
         <v>138130</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119805</v>
+        <v>120473</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>159579</v>
+        <v>158361</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3218191843347839</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2791257161331375</v>
+        <v>0.2806810492817481</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3717920732622759</v>
+        <v>0.3689543874910758</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>287</v>
@@ -856,19 +856,19 @@
         <v>294507</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>269465</v>
+        <v>264570</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>323796</v>
+        <v>322812</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3337529118595656</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3053739840299027</v>
+        <v>0.2998268581651763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.366945359385626</v>
+        <v>0.3658299626821263</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>50328</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37351</v>
+        <v>39432</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64244</v>
+        <v>63745</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1110526498491938</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08241808887109645</v>
+        <v>0.08700924606636133</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1417590445382149</v>
+        <v>0.1406562396705774</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -906,19 +906,19 @@
         <v>45751</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35190</v>
+        <v>35169</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61224</v>
+        <v>59675</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.106592713449227</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08198602595566946</v>
+        <v>0.08193828750509977</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1426421529777371</v>
+        <v>0.1390331287786924</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -927,19 +927,19 @@
         <v>96080</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>76918</v>
+        <v>78802</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>112774</v>
+        <v>115657</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1088832759219946</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08716847133181072</v>
+        <v>0.08930265022056687</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1278017494302797</v>
+        <v>0.131069300520696</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>377108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>349500</v>
+        <v>351306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>400828</v>
+        <v>405632</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5509138962947397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5105812298036916</v>
+        <v>0.5132189154102272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5855656403432419</v>
+        <v>0.5925844574203128</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>306</v>
@@ -1052,19 +1052,19 @@
         <v>324707</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>299638</v>
+        <v>299951</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>348953</v>
+        <v>350158</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5320848114310583</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4910051702493609</v>
+        <v>0.4915169318296077</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5718152518248825</v>
+        <v>0.573789658176963</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>669</v>
@@ -1073,19 +1073,19 @@
         <v>701816</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>667495</v>
+        <v>660950</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>739005</v>
+        <v>741396</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5420393064088865</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5155315715165525</v>
+        <v>0.510477128820559</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5707617240529419</v>
+        <v>0.5726079217082595</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>217516</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>193422</v>
+        <v>192934</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>241817</v>
+        <v>245477</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3177675258115539</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2825680437175649</v>
+        <v>0.2818548390093336</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3532682399214129</v>
+        <v>0.3586153524288975</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>183</v>
@@ -1123,19 +1123,19 @@
         <v>197965</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>174739</v>
+        <v>175358</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>220944</v>
+        <v>223035</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3243978116070763</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2863383663492717</v>
+        <v>0.287352068029599</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3620521553322338</v>
+        <v>0.3654781839201108</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>400</v>
@@ -1144,19 +1144,19 @@
         <v>415482</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>381936</v>
+        <v>382046</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>447774</v>
+        <v>452633</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3208925352152108</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2949836744713036</v>
+        <v>0.295068486285187</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3458329575989766</v>
+        <v>0.3495859326682989</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>89889</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73670</v>
+        <v>74227</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109850</v>
+        <v>110983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1313185778937064</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1076233202151952</v>
+        <v>0.1084373236504534</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1604785843444439</v>
+        <v>0.1621341510820966</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -1194,19 +1194,19 @@
         <v>87582</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69963</v>
+        <v>71742</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105369</v>
+        <v>106469</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1435173769618653</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1146460395630499</v>
+        <v>0.1175607830821089</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1726631261359279</v>
+        <v>0.1744665489554868</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -1215,19 +1215,19 @@
         <v>177472</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152751</v>
+        <v>154491</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203543</v>
+        <v>204659</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1370681583759026</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1179756270758343</v>
+        <v>0.1193190656198085</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1572036963901618</v>
+        <v>0.1580659437086193</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>368812</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>340673</v>
+        <v>343471</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>395453</v>
+        <v>395376</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5422329373053909</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5008627186096347</v>
+        <v>0.5049766834840508</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5814019280687588</v>
+        <v>0.5812885042814776</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>348</v>
@@ -1340,19 +1340,19 @@
         <v>373512</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>346989</v>
+        <v>346749</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>400193</v>
+        <v>401903</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5289678799209263</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4914060613449719</v>
+        <v>0.4910664733954705</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5667537945779096</v>
+        <v>0.5691746236502755</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>696</v>
@@ -1361,19 +1361,19 @@
         <v>742324</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>705846</v>
+        <v>706824</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>779921</v>
+        <v>783007</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.535476289520749</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.509162656748719</v>
+        <v>0.5098684905381811</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5625971187931177</v>
+        <v>0.5648230856659795</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>240670</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>218232</v>
+        <v>217341</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>267889</v>
+        <v>267029</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3538364135410832</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3208483171056691</v>
+        <v>0.3195376123160421</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3938543219057906</v>
+        <v>0.3925907168406081</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>219</v>
@@ -1411,19 +1411,19 @@
         <v>232275</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>205894</v>
+        <v>207319</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>258445</v>
+        <v>258726</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3289481405751596</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2915865883979141</v>
+        <v>0.2936048669113544</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3660091192580296</v>
+        <v>0.3664072681086779</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>447</v>
@@ -1432,19 +1432,19 @@
         <v>472945</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>437443</v>
+        <v>436205</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>512286</v>
+        <v>510735</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3411594013333777</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3155502414705922</v>
+        <v>0.314657231423045</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3695381917981678</v>
+        <v>0.3684193195638402</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>70691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55530</v>
+        <v>57416</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87779</v>
+        <v>87858</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1039306491535259</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08164087007501103</v>
+        <v>0.08441372399595652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1290541611951017</v>
+        <v>0.129170107679657</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -1482,19 +1482,19 @@
         <v>100328</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>82002</v>
+        <v>81538</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>119177</v>
+        <v>120647</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.142083979503914</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1161309467626755</v>
+        <v>0.1154743354471375</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1687790428081458</v>
+        <v>0.1708602131692928</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>169</v>
@@ -1503,19 +1503,19 @@
         <v>171018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>145961</v>
+        <v>147429</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>195842</v>
+        <v>196844</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1233643091458733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1052891330142032</v>
+        <v>0.1063483075804812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.141270650020394</v>
+        <v>0.1419935871995053</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>312608</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>287367</v>
+        <v>285970</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>340286</v>
+        <v>338069</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5094710016367401</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4683343437179429</v>
+        <v>0.4660579745516726</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5545788643822079</v>
+        <v>0.5509668883511795</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>274</v>
@@ -1628,19 +1628,19 @@
         <v>315815</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>288112</v>
+        <v>288037</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342186</v>
+        <v>339515</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5159641648110859</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4707041989779941</v>
+        <v>0.4705815113489951</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5590474234991986</v>
+        <v>0.5546832550549585</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>550</v>
@@ -1649,19 +1649,19 @@
         <v>628423</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>592512</v>
+        <v>588948</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>666956</v>
+        <v>663791</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5127135963955389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4834145594033492</v>
+        <v>0.4805071854531677</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5441520286271284</v>
+        <v>0.5415696143568756</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>213360</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188779</v>
+        <v>190623</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>239073</v>
+        <v>239554</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3477227085308317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3076620045895274</v>
+        <v>0.3106664987771451</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.389627527840337</v>
+        <v>0.3904116513958042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -1699,19 +1699,19 @@
         <v>215013</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>189104</v>
+        <v>190431</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>239301</v>
+        <v>237578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.351277622329609</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3089495637340713</v>
+        <v>0.3111171086306054</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3909592559790172</v>
+        <v>0.3881435473436577</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>381</v>
@@ -1720,19 +1720,19 @@
         <v>428373</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>391780</v>
+        <v>393685</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>462020</v>
+        <v>468027</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.349497982698812</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3196426701037282</v>
+        <v>0.3211972986159387</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3769500519211282</v>
+        <v>0.3818512205210305</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>87625</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72884</v>
+        <v>68611</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>107318</v>
+        <v>107414</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1428062898324282</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1187824585442788</v>
+        <v>0.1118189249238691</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.17490109271976</v>
+        <v>0.1750574246370878</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -1770,19 +1770,19 @@
         <v>81260</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63947</v>
+        <v>64693</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99879</v>
+        <v>102503</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1327582128593051</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1044736860758144</v>
+        <v>0.105693116420028</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1631767728408555</v>
+        <v>0.1674651593031412</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>152</v>
@@ -1791,19 +1791,19 @@
         <v>168885</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>144095</v>
+        <v>145554</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>196656</v>
+        <v>197728</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.137788420905649</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1175633164188819</v>
+        <v>0.1187536926574052</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1604462372378408</v>
+        <v>0.161320722944713</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>219015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196033</v>
+        <v>197175</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>240239</v>
+        <v>237096</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.511187503462017</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4575463055657268</v>
+        <v>0.4602136459903576</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.560726517434376</v>
+        <v>0.5533899818117017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>198</v>
@@ -1916,19 +1916,19 @@
         <v>220001</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>197023</v>
+        <v>198935</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>240818</v>
+        <v>243502</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4947487967455831</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4430730646689193</v>
+        <v>0.44737331419384</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5415626134198019</v>
+        <v>0.5475973538073817</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>396</v>
@@ -1937,19 +1937,19 @@
         <v>439016</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>405540</v>
+        <v>408806</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>469268</v>
+        <v>469966</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5028153583165477</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4644744300797536</v>
+        <v>0.4682145751995269</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5374637848844066</v>
+        <v>0.5382632819000723</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>152958</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>134467</v>
+        <v>134025</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>172544</v>
+        <v>174078</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3570089463772677</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3138509605790588</v>
+        <v>0.3128182213834733</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4027240309534076</v>
+        <v>0.4063043994395989</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>150</v>
@@ -1987,19 +1987,19 @@
         <v>164385</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>142048</v>
+        <v>143716</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>186148</v>
+        <v>187421</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.369677255514022</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3194439550733048</v>
+        <v>0.3231950383792579</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4186182642260484</v>
+        <v>0.4214808062742681</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>291</v>
@@ -2008,19 +2008,19 @@
         <v>317343</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>287638</v>
+        <v>286629</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>347352</v>
+        <v>346943</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3634608482616509</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3294389063450635</v>
+        <v>0.3282833608882882</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3978303158222434</v>
+        <v>0.397361408422302</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>56470</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43941</v>
+        <v>43454</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71932</v>
+        <v>72543</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1318035501607153</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1025601847522273</v>
+        <v>0.1014242011332187</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1678907268035118</v>
+        <v>0.1693186081244517</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -2058,19 +2058,19 @@
         <v>60286</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47225</v>
+        <v>45582</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76782</v>
+        <v>77104</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.135573947740395</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1062026084472692</v>
+        <v>0.1025056716988916</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1726716881575902</v>
+        <v>0.1733948492563627</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>108</v>
@@ -2079,19 +2079,19 @@
         <v>116756</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>97340</v>
+        <v>95476</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>137944</v>
+        <v>136554</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1337237934218015</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1114855139856322</v>
+        <v>0.1093503697199804</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1579908926274266</v>
+        <v>0.1563986854351916</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>144851</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>127438</v>
+        <v>127034</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>163575</v>
+        <v>162622</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.467584017078551</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4113752206726879</v>
+        <v>0.4100690354696139</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.528026365146983</v>
+        <v>0.5249496419327668</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>176</v>
@@ -2204,19 +2204,19 @@
         <v>180865</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>159847</v>
+        <v>161104</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>199784</v>
+        <v>199265</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5109226338360803</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4515498805789195</v>
+        <v>0.4551019825559096</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5643682689023612</v>
+        <v>0.562902207834041</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>309</v>
@@ -2225,19 +2225,19 @@
         <v>325716</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>299047</v>
+        <v>297365</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>349119</v>
+        <v>350780</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4906965642163101</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4505205151721887</v>
+        <v>0.4479858004066199</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5259538259409671</v>
+        <v>0.528456391260125</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>117856</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101027</v>
+        <v>101309</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>137545</v>
+        <v>137694</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3804421216245237</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3261181764981158</v>
+        <v>0.3270300910865208</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.443999751025914</v>
+        <v>0.4444797060955861</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>128</v>
@@ -2275,19 +2275,19 @@
         <v>133136</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>115139</v>
+        <v>116436</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>152527</v>
+        <v>152024</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3760940205133375</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3252554458044046</v>
+        <v>0.3289194719654705</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4308715069477482</v>
+        <v>0.4294518202114309</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>237</v>
@@ -2296,19 +2296,19 @@
         <v>250991</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>227813</v>
+        <v>226014</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>277307</v>
+        <v>276230</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3781232729991906</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3432041311704533</v>
+        <v>0.3404945252663497</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4177674748139129</v>
+        <v>0.4161458051874298</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>47079</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33581</v>
+        <v>34757</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>62760</v>
+        <v>63467</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1519738612969253</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1083990853532793</v>
+        <v>0.1121977417321728</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.20259006950387</v>
+        <v>0.204874978379034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>40</v>
@@ -2346,19 +2346,19 @@
         <v>39996</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29935</v>
+        <v>28975</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>53469</v>
+        <v>52784</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1129833456505823</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08456440657446995</v>
+        <v>0.08185131920270022</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.151044733071648</v>
+        <v>0.1491088033363719</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>80</v>
@@ -2367,19 +2367,19 @@
         <v>87075</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>69925</v>
+        <v>70592</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>106047</v>
+        <v>108000</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1311801627844994</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1053434954961227</v>
+        <v>0.1063481979992708</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1597625238067822</v>
+        <v>0.1627036248448482</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>128080</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>110452</v>
+        <v>110244</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>144028</v>
+        <v>144096</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.515032069087457</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4441496062284284</v>
+        <v>0.4433130443510156</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5791620550034742</v>
+        <v>0.5794384682195219</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>161</v>
@@ -2492,19 +2492,19 @@
         <v>180173</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>160679</v>
+        <v>157905</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>201111</v>
+        <v>201250</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4658564209606002</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4154514022890942</v>
+        <v>0.4082799792684474</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5199941652228675</v>
+        <v>0.5203527856900978</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>275</v>
@@ -2513,19 +2513,19 @@
         <v>308253</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>281184</v>
+        <v>283442</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>336430</v>
+        <v>335925</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4851015936454575</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4425035820366925</v>
+        <v>0.4460558115648299</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5294441332551767</v>
+        <v>0.5286492903048801</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>91193</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>75237</v>
+        <v>76678</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>106669</v>
+        <v>109699</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3667040261280925</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3025427835625747</v>
+        <v>0.3083357758321915</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4289351142759238</v>
+        <v>0.4411181345074664</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>124</v>
@@ -2563,19 +2563,19 @@
         <v>137028</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>118632</v>
+        <v>117722</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>157107</v>
+        <v>159099</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3543006099747331</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3067361662189226</v>
+        <v>0.3043833377340371</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4062163698412497</v>
+        <v>0.4113676430327728</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>204</v>
@@ -2584,19 +2584,19 @@
         <v>228221</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>203359</v>
+        <v>203381</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>255666</v>
+        <v>254000</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3591547582136697</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3200283807523625</v>
+        <v>0.3200640060137611</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4023449012322564</v>
+        <v>0.3997226796560608</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>29410</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20002</v>
+        <v>20018</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>41384</v>
+        <v>41732</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1182639047844505</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0804320715299076</v>
+        <v>0.08049580070809864</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1664109059538337</v>
+        <v>0.16781136914021</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>63</v>
@@ -2634,19 +2634,19 @@
         <v>69556</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>53352</v>
+        <v>55343</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>84924</v>
+        <v>86656</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1798429690646667</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1379472572847358</v>
+        <v>0.1430945486634821</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2195803004134695</v>
+        <v>0.2240588545472293</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>90</v>
@@ -2655,19 +2655,19 @@
         <v>98966</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>79847</v>
+        <v>78044</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>118417</v>
+        <v>118587</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1557436481408729</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1256561083625664</v>
+        <v>0.1228195169691849</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1863542427970665</v>
+        <v>0.186621527325986</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>1796962</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1732979</v>
+        <v>1731659</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1857665</v>
+        <v>1852071</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5256756711947308</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5069581440984481</v>
+        <v>0.50657213887653</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5434332395699636</v>
+        <v>0.5417969117217352</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1703</v>
@@ -2780,19 +2780,19 @@
         <v>1840410</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1777896</v>
+        <v>1782432</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1900121</v>
+        <v>1902323</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5194346907662244</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5017908358997141</v>
+        <v>0.5030713156604877</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.536287458036077</v>
+        <v>0.5369090484175388</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3376</v>
@@ -2801,19 +2801,19 @@
         <v>3637371</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3558016</v>
+        <v>3552670</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3726257</v>
+        <v>3721044</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5224992773153929</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5111000339934109</v>
+        <v>0.5103320930241706</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5352674790518265</v>
+        <v>0.5345186722314305</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>1189930</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1129041</v>
+        <v>1135896</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1250584</v>
+        <v>1252392</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.34809707311018</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3302849005750048</v>
+        <v>0.3322902315958866</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3658404606759024</v>
+        <v>0.3663695138018846</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1130</v>
@@ -2851,19 +2851,19 @@
         <v>1217933</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1154938</v>
+        <v>1157714</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1278249</v>
+        <v>1281491</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3437478112399983</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3259681379087938</v>
+        <v>0.3267517049848681</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.360771204295286</v>
+        <v>0.3616862390299574</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2247</v>
@@ -2872,19 +2872,19 @@
         <v>2407863</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2328195</v>
+        <v>2326098</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2494897</v>
+        <v>2490070</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3458834836041176</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3344394000775755</v>
+        <v>0.3341381543820544</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3583857327970378</v>
+        <v>0.3576922958243764</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>431493</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>394363</v>
+        <v>394840</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>476815</v>
+        <v>475089</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1262272556950892</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1153653625210623</v>
+        <v>0.1155048688248957</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1394853820204447</v>
+        <v>0.1389806353625838</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>452</v>
@@ -2922,19 +2922,19 @@
         <v>484758</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>441518</v>
+        <v>443447</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>526637</v>
+        <v>529688</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1368174979937774</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1246135632868042</v>
+        <v>0.1251579569178093</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1486372096105522</v>
+        <v>0.1494983313696113</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>863</v>
@@ -2943,19 +2943,19 @@
         <v>916252</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>857500</v>
+        <v>863819</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>969830</v>
+        <v>978082</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1316172390804894</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.123177742355494</v>
+        <v>0.1240854598333372</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1393136675283442</v>
+        <v>0.1404990635097423</v>
       </c>
     </row>
     <row r="35">
@@ -3290,19 +3290,19 @@
         <v>283461</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>261080</v>
+        <v>262348</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>300641</v>
+        <v>301180</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6794592245638442</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6258123387873982</v>
+        <v>0.6288525009144655</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7206411855474593</v>
+        <v>0.7219317178616982</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>275</v>
@@ -3311,19 +3311,19 @@
         <v>267065</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>248685</v>
+        <v>248345</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>284388</v>
+        <v>285367</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6765265900516104</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6299658142850576</v>
+        <v>0.629104129152844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7204104159221217</v>
+        <v>0.7228888430783862</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>544</v>
@@ -3332,19 +3332,19 @@
         <v>550526</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>524729</v>
+        <v>523180</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>575535</v>
+        <v>576242</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6780334088835259</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6462614245392516</v>
+        <v>0.6443544710268291</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7088347535722421</v>
+        <v>0.7097054762000441</v>
       </c>
     </row>
     <row r="5">
@@ -3361,19 +3361,19 @@
         <v>99562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83389</v>
+        <v>81849</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>119526</v>
+        <v>118139</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2386505244351817</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1998844753010977</v>
+        <v>0.1961933977797874</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2865061571141535</v>
+        <v>0.2831811104341356</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -3382,19 +3382,19 @@
         <v>86708</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72000</v>
+        <v>71574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102935</v>
+        <v>104841</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2196476565733028</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1823900225530778</v>
+        <v>0.1813114333486526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2607532885907905</v>
+        <v>0.2655817828586055</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>179</v>
@@ -3403,19 +3403,19 @@
         <v>186270</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>163819</v>
+        <v>163141</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>211292</v>
+        <v>211223</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2294115323768614</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2017612028135555</v>
+        <v>0.2009261757485627</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2602293654155045</v>
+        <v>0.2601439355132206</v>
       </c>
     </row>
     <row r="6">
@@ -3432,19 +3432,19 @@
         <v>34163</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23920</v>
+        <v>23926</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47906</v>
+        <v>46787</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08189025100097412</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05733753118415275</v>
+        <v>0.05735072800834545</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1148317451113442</v>
+        <v>0.1121499830960159</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -3453,19 +3453,19 @@
         <v>40986</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29295</v>
+        <v>29770</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54291</v>
+        <v>54706</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1038257533750868</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07420914986217689</v>
+        <v>0.07541253358290093</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1375300441919441</v>
+        <v>0.1385814475859138</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>71</v>
@@ -3474,19 +3474,19 @@
         <v>75150</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>60881</v>
+        <v>60559</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>92652</v>
+        <v>93242</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0925550587396127</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07498113171680124</v>
+        <v>0.07458509639961206</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1141116294056242</v>
+        <v>0.1148381015072474</v>
       </c>
     </row>
     <row r="7">
@@ -3578,19 +3578,19 @@
         <v>364460</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>340321</v>
+        <v>341296</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>388127</v>
+        <v>389427</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6172101834586616</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5763308092040503</v>
+        <v>0.5779812340505284</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6572905271958519</v>
+        <v>0.6594916804347581</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>367</v>
@@ -3599,19 +3599,19 @@
         <v>356166</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>334496</v>
+        <v>334926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>378512</v>
+        <v>377004</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6330538537008034</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5945362813501074</v>
+        <v>0.5953016345696827</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6727718427263064</v>
+        <v>0.6700907795463102</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>718</v>
@@ -3620,19 +3620,19 @@
         <v>720627</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>684508</v>
+        <v>686525</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>749693</v>
+        <v>750145</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6249404825985608</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5936178156492891</v>
+        <v>0.5953670380390115</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6501467999874615</v>
+        <v>0.6505386751839186</v>
       </c>
     </row>
     <row r="9">
@@ -3649,19 +3649,19 @@
         <v>161153</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>139940</v>
+        <v>139060</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>182988</v>
+        <v>183288</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2729104769233518</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.236987436275444</v>
+        <v>0.2354969329230275</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3098889513481901</v>
+        <v>0.3103967152904597</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>142</v>
@@ -3670,19 +3670,19 @@
         <v>138736</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>119872</v>
+        <v>120127</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>159707</v>
+        <v>159984</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2465904238748263</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2130624665433418</v>
+        <v>0.2135158236071597</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2838651845896596</v>
+        <v>0.284357078376552</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>295</v>
@@ -3691,19 +3691,19 @@
         <v>299889</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>273359</v>
+        <v>270933</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>333224</v>
+        <v>329348</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2600686365963586</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.23706163830906</v>
+        <v>0.2349577441733902</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2889775940463036</v>
+        <v>0.2856163730392561</v>
       </c>
     </row>
     <row r="10">
@@ -3720,19 +3720,19 @@
         <v>64883</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50860</v>
+        <v>51492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81280</v>
+        <v>81639</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1098793396179865</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08613106613604397</v>
+        <v>0.08720194653286652</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.137647573486343</v>
+        <v>0.1382545855382753</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -3741,19 +3741,19 @@
         <v>67714</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53687</v>
+        <v>52739</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82788</v>
+        <v>82183</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1203557224243703</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09542427974977971</v>
+        <v>0.09373822166101997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1471491306092045</v>
+        <v>0.1460736368913044</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>132</v>
@@ -3762,19 +3762,19 @@
         <v>132597</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113440</v>
+        <v>114102</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>155306</v>
+        <v>155803</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1149908808050805</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09837736845767389</v>
+        <v>0.09895151683243956</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1346839447755134</v>
+        <v>0.13511528669875</v>
       </c>
     </row>
     <row r="11">
@@ -3866,19 +3866,19 @@
         <v>439564</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>415454</v>
+        <v>417524</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>463390</v>
+        <v>466593</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6599183743629806</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6237217360851778</v>
+        <v>0.6268293991569894</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6956892343221939</v>
+        <v>0.7004982044744696</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>455</v>
@@ -3887,19 +3887,19 @@
         <v>450614</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>425638</v>
+        <v>426933</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>473584</v>
+        <v>474548</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6853448790715657</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6473586016803925</v>
+        <v>0.6493281184045568</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7202798883658216</v>
+        <v>0.7217456670409563</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>879</v>
@@ -3908,19 +3908,19 @@
         <v>890178</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>858089</v>
+        <v>855032</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>926132</v>
+        <v>921724</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6725491394992896</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6483051726662559</v>
+        <v>0.6459958579416676</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6997133956150733</v>
+        <v>0.6963830287740084</v>
       </c>
     </row>
     <row r="13">
@@ -3937,19 +3937,19 @@
         <v>162144</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>141417</v>
+        <v>139899</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>185341</v>
+        <v>183797</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2434276400936223</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2123101132617186</v>
+        <v>0.2100300674839309</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2782523674892577</v>
+        <v>0.2759356974093288</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -3958,19 +3958,19 @@
         <v>141791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>121934</v>
+        <v>120441</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>162506</v>
+        <v>162301</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2156518408164391</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1854502420170431</v>
+        <v>0.1831808283366025</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2471569470713919</v>
+        <v>0.2468456363370337</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>291</v>
@@ -3979,19 +3979,19 @@
         <v>303935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>273713</v>
+        <v>271439</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>334686</v>
+        <v>336920</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2296298491206102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2067963209012863</v>
+        <v>0.2050780489318576</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2528623501021426</v>
+        <v>0.254550190346009</v>
       </c>
     </row>
     <row r="14">
@@ -4008,19 +4008,19 @@
         <v>64380</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51176</v>
+        <v>50086</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80987</v>
+        <v>81361</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09665398554339714</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07683076415862983</v>
+        <v>0.07519396687607006</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1215855161654602</v>
+        <v>0.1221474154765538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -4029,19 +4029,19 @@
         <v>65095</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51096</v>
+        <v>50119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82357</v>
+        <v>81838</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09900328011199515</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07771330096072697</v>
+        <v>0.07622706405262988</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1252574659399754</v>
+        <v>0.1244682349855553</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>126</v>
@@ -4050,19 +4050,19 @@
         <v>129475</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>109339</v>
+        <v>109443</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152010</v>
+        <v>151237</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09782101138010009</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08260832996604804</v>
+        <v>0.08268646130512583</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1148470111176035</v>
+        <v>0.1142632223337217</v>
       </c>
     </row>
     <row r="15">
@@ -4154,19 +4154,19 @@
         <v>422356</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>397642</v>
+        <v>399061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>446357</v>
+        <v>450252</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6571703712664209</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6187166457344381</v>
+        <v>0.6209256871321445</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.694516510912435</v>
+        <v>0.7005770870990278</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>403</v>
@@ -4175,19 +4175,19 @@
         <v>434903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>408427</v>
+        <v>409604</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>458394</v>
+        <v>459325</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6729663835211965</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6319972594892074</v>
+        <v>0.6338189154891732</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.709316538259813</v>
+        <v>0.710757122677802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>779</v>
@@ -4196,19 +4196,19 @@
         <v>857259</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>821228</v>
+        <v>824683</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>889788</v>
+        <v>892310</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6650901962155726</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6371364016948653</v>
+        <v>0.6398165882225422</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6903277214337995</v>
+        <v>0.6922844558126461</v>
       </c>
     </row>
     <row r="17">
@@ -4225,19 +4225,19 @@
         <v>158384</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>136009</v>
+        <v>135410</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181733</v>
+        <v>181359</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2464404815757447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.211624612932258</v>
+        <v>0.2106939508619172</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2827708612686871</v>
+        <v>0.2821888179701668</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -4246,19 +4246,19 @@
         <v>138147</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>117930</v>
+        <v>118192</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160314</v>
+        <v>158608</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2137674630854205</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1824847325420133</v>
+        <v>0.1828897964032474</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2480681164941488</v>
+        <v>0.2454288132159582</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>278</v>
@@ -4267,19 +4267,19 @@
         <v>296531</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>264264</v>
+        <v>265701</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>327298</v>
+        <v>326482</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.230058841524438</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2050246680399267</v>
+        <v>0.2061398659496755</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2539286725742426</v>
+        <v>0.2532958979744979</v>
       </c>
     </row>
     <row r="18">
@@ -4296,19 +4296,19 @@
         <v>61948</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46183</v>
+        <v>47618</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>78657</v>
+        <v>78194</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09638914715783445</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07185885777626345</v>
+        <v>0.07409153598872084</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1223870413702414</v>
+        <v>0.1216675090128359</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -4317,19 +4317,19 @@
         <v>73198</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>58069</v>
+        <v>57581</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>90702</v>
+        <v>91135</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1132661533933829</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08985497579835965</v>
+        <v>0.0891004400472743</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1403513439677063</v>
+        <v>0.1410223059723983</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>122</v>
@@ -4338,19 +4338,19 @@
         <v>135146</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>114615</v>
+        <v>114202</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>159548</v>
+        <v>161138</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1048509622599894</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08892186826744933</v>
+        <v>0.0886016546412968</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.123782347829726</v>
+        <v>0.1250166500237484</v>
       </c>
     </row>
     <row r="19">
@@ -4442,19 +4442,19 @@
         <v>310552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>289031</v>
+        <v>289503</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332508</v>
+        <v>331629</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6555179706352871</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6100924892106484</v>
+        <v>0.6110890164740755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7018645527866826</v>
+        <v>0.700008066348227</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>269</v>
@@ -4463,19 +4463,19 @@
         <v>307946</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>286015</v>
+        <v>285721</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>330061</v>
+        <v>331482</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6238288234986902</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5794013454261813</v>
+        <v>0.5788071641827174</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6686291159575253</v>
+        <v>0.6715072724249183</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>546</v>
@@ -4484,19 +4484,19 @@
         <v>618497</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>586100</v>
+        <v>586038</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>651178</v>
+        <v>649438</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6393476587574112</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6058588415652857</v>
+        <v>0.6057943294442443</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6731311975189121</v>
+        <v>0.671331793729135</v>
       </c>
     </row>
     <row r="21">
@@ -4513,19 +4513,19 @@
         <v>108985</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>88073</v>
+        <v>90192</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>126732</v>
+        <v>129652</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2300478992873438</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1859050913412207</v>
+        <v>0.1903789775153272</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2675092223040117</v>
+        <v>0.2736728135339193</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>102</v>
@@ -4534,19 +4534,19 @@
         <v>113721</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>94722</v>
+        <v>93712</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>134656</v>
+        <v>133859</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2303725535863813</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1918858091369855</v>
+        <v>0.1898387331196258</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2727819512289015</v>
+        <v>0.27116922205112</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>198</v>
@@ -4555,19 +4555,19 @@
         <v>222706</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>195821</v>
+        <v>197156</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>250860</v>
+        <v>250435</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2302135636154275</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2024231041178748</v>
+        <v>0.2038028441412749</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2593166221092459</v>
+        <v>0.2588778810321721</v>
       </c>
     </row>
     <row r="22">
@@ -4584,19 +4584,19 @@
         <v>54213</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38999</v>
+        <v>40814</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69112</v>
+        <v>69940</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1144341300773691</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08232013195665557</v>
+        <v>0.08615177509956978</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1458834990081497</v>
+        <v>0.1476296948398559</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -4605,19 +4605,19 @@
         <v>71972</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55216</v>
+        <v>55274</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89829</v>
+        <v>90141</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1457986229149285</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1118543627795804</v>
+        <v>0.1119730465483505</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1819728667377742</v>
+        <v>0.1826045038925707</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -4626,19 +4626,19 @@
         <v>126185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>105276</v>
+        <v>105320</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>150921</v>
+        <v>149753</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1304387776271613</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1088254796195827</v>
+        <v>0.108871088845436</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1560084397232121</v>
+        <v>0.1548013112626652</v>
       </c>
     </row>
     <row r="23">
@@ -4730,19 +4730,19 @@
         <v>227298</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>210035</v>
+        <v>208792</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>243922</v>
+        <v>244959</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6837875249896676</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6318554647115793</v>
+        <v>0.6281154652060166</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7338000699897043</v>
+        <v>0.7369170649939676</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>215</v>
@@ -4751,19 +4751,19 @@
         <v>229278</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>209381</v>
+        <v>207960</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>248313</v>
+        <v>246894</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6135161046651015</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5602743938500176</v>
+        <v>0.5564714564146533</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6644502376234594</v>
+        <v>0.6606521227241643</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>439</v>
@@ -4772,19 +4772,19 @@
         <v>456576</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>429672</v>
+        <v>430775</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>480749</v>
+        <v>483148</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6465966794525527</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6084948811332364</v>
+        <v>0.6100568994756574</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6808303077116052</v>
+        <v>0.6842280014637898</v>
       </c>
     </row>
     <row r="25">
@@ -4801,19 +4801,19 @@
         <v>73608</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>59189</v>
+        <v>58529</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>90022</v>
+        <v>90123</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2214377114135859</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1780594313253402</v>
+        <v>0.1760759128252491</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2708164250210844</v>
+        <v>0.2711190215258492</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>85</v>
@@ -4822,19 +4822,19 @@
         <v>90282</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74460</v>
+        <v>75924</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>108061</v>
+        <v>110803</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2415827662183507</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1992439270160408</v>
+        <v>0.2031626819432563</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2891545667118569</v>
+        <v>0.2964925570769834</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>153</v>
@@ -4843,19 +4843,19 @@
         <v>163890</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>143080</v>
+        <v>141554</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>185966</v>
+        <v>186425</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2320993946145274</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2026277460456305</v>
+        <v>0.2004667741444674</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2633628714268362</v>
+        <v>0.2640123658045055</v>
       </c>
     </row>
     <row r="26">
@@ -4872,19 +4872,19 @@
         <v>31504</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22068</v>
+        <v>21009</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43070</v>
+        <v>43228</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09477476359674651</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06638675021051195</v>
+        <v>0.06320227011471075</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1295699330772066</v>
+        <v>0.1300447674699027</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -4893,19 +4893,19 @@
         <v>54151</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>41191</v>
+        <v>41311</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70380</v>
+        <v>69510</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1449011291165477</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1102204635742389</v>
+        <v>0.110541148335677</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1883260717897643</v>
+        <v>0.1859984872416851</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>81</v>
@@ -4914,19 +4914,19 @@
         <v>85655</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>69557</v>
+        <v>70367</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>104868</v>
+        <v>105113</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.12130392593292</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09850633406351303</v>
+        <v>0.09965256321340187</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1485122109899428</v>
+        <v>0.1488598262087079</v>
       </c>
     </row>
     <row r="27">
@@ -5018,19 +5018,19 @@
         <v>161489</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>147364</v>
+        <v>148242</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>174970</v>
+        <v>174460</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6306043910263347</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5754483308286684</v>
+        <v>0.5788763464148952</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.683248551412049</v>
+        <v>0.6812551952634204</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>198</v>
@@ -5039,19 +5039,19 @@
         <v>262137</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>238711</v>
+        <v>238846</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>281524</v>
+        <v>282430</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6590136213532316</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6001205897075351</v>
+        <v>0.6004591303607878</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7077521376417617</v>
+        <v>0.7100300930026062</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>389</v>
@@ -5060,19 +5060,19 @@
         <v>423626</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>397797</v>
+        <v>396657</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>447564</v>
+        <v>447716</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.647887032725955</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6083841742612786</v>
+        <v>0.6066416090757636</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6844979879647032</v>
+        <v>0.6847302344579614</v>
       </c>
     </row>
     <row r="29">
@@ -5089,19 +5089,19 @@
         <v>70364</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>58585</v>
+        <v>58146</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>85266</v>
+        <v>84520</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.274768626063739</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2287721456873179</v>
+        <v>0.2270576239658531</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3329569011683575</v>
+        <v>0.3300459777116766</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>73</v>
@@ -5110,19 +5110,19 @@
         <v>97271</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>80074</v>
+        <v>79508</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>117416</v>
+        <v>118035</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2445398386245013</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2013050446735604</v>
+        <v>0.1998825492901329</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2951837249901675</v>
+        <v>0.2967414682144366</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>154</v>
@@ -5131,19 +5131,19 @@
         <v>167636</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>146098</v>
+        <v>146044</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>192144</v>
+        <v>193040</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2563790640687523</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.223440082105481</v>
+        <v>0.2233566336418268</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2938618846971705</v>
+        <v>0.2952321503332948</v>
       </c>
     </row>
     <row r="30">
@@ -5160,19 +5160,19 @@
         <v>24233</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16448</v>
+        <v>16430</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>33392</v>
+        <v>33051</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0946269829099263</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06422869362959069</v>
+        <v>0.06415711459872454</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1303922025080567</v>
+        <v>0.1290606483582427</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>28</v>
@@ -5181,19 +5181,19 @@
         <v>38364</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>26829</v>
+        <v>26195</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>54554</v>
+        <v>55051</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09644654002226702</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0674492857341057</v>
+        <v>0.06585360180623287</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1371489637228561</v>
+        <v>0.138398467042871</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>57</v>
@@ -5202,19 +5202,19 @@
         <v>62596</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>48608</v>
+        <v>48066</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>81318</v>
+        <v>79665</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09573390320529269</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07434004007790215</v>
+        <v>0.07351129451699653</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1243665906759964</v>
+        <v>0.1218391095235005</v>
       </c>
     </row>
     <row r="31">
@@ -5306,19 +5306,19 @@
         <v>2209179</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2154615</v>
+        <v>2151178</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2267242</v>
+        <v>2266554</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6538538539363146</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6377044840372879</v>
+        <v>0.6366872156454708</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6710389559939806</v>
+        <v>0.6708354661014242</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2182</v>
@@ -5327,19 +5327,19 @@
         <v>2308110</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2254578</v>
+        <v>2242659</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2369215</v>
+        <v>2356425</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.654551726423493</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6393707902999723</v>
+        <v>0.6359907465972054</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6718804711892964</v>
+        <v>0.6682532141897825</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4294</v>
@@ -5348,19 +5348,19 @@
         <v>4517288</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4439469</v>
+        <v>4434038</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4602705</v>
+        <v>4594237</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6542102460757706</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6429401296433966</v>
+        <v>0.6421535822020299</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6665805876095303</v>
+        <v>0.665354160295683</v>
       </c>
     </row>
     <row r="33">
@@ -5377,19 +5377,19 @@
         <v>834200</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>780101</v>
+        <v>782119</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>885742</v>
+        <v>887512</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2468995485229802</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2308877081372305</v>
+        <v>0.2314850306233319</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2621544549919323</v>
+        <v>0.2626782510289267</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>762</v>
@@ -5398,19 +5398,19 @@
         <v>806656</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>758299</v>
+        <v>761692</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>861447</v>
+        <v>862855</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2287576755365146</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.215044460154565</v>
+        <v>0.2160066832057183</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.244295865999957</v>
+        <v>0.2446950491819385</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1548</v>
@@ -5419,19 +5419,19 @@
         <v>1640856</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1563845</v>
+        <v>1578561</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1710943</v>
+        <v>1718385</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2376347887765021</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2264817791953571</v>
+        <v>0.2286129225782681</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2477850881856376</v>
+        <v>0.2488628467009869</v>
       </c>
     </row>
     <row r="34">
@@ -5448,19 +5448,19 @@
         <v>335325</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>301694</v>
+        <v>299768</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>373409</v>
+        <v>369970</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09924659754070522</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08929268459894601</v>
+        <v>0.08872270090245676</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1105184670265303</v>
+        <v>0.1095005953473307</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>377</v>
@@ -5469,19 +5469,19 @@
         <v>411480</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>370752</v>
+        <v>375889</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>450535</v>
+        <v>456161</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1166905980399923</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1051408066763257</v>
+        <v>0.1065976286329988</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1277661851071534</v>
+        <v>0.1293615610354924</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>695</v>
@@ -5490,19 +5490,19 @@
         <v>746805</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>699185</v>
+        <v>694821</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>806327</v>
+        <v>800290</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1081549651477273</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1012585991592982</v>
+        <v>0.1006265075359082</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1167752264480055</v>
+        <v>0.1159009151423893</v>
       </c>
     </row>
     <row r="35">
@@ -5837,19 +5837,19 @@
         <v>311069</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>281490</v>
+        <v>284385</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>336066</v>
+        <v>335536</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7628105018690728</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6902756873841041</v>
+        <v>0.6973757220732123</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8241104804428573</v>
+        <v>0.8228106575294249</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -5858,19 +5858,19 @@
         <v>235062</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>209707</v>
+        <v>206772</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>256621</v>
+        <v>259448</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6527503557388035</v>
+        <v>0.6527503557388036</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5823417827721014</v>
+        <v>0.5741903180642733</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7126173589930054</v>
+        <v>0.7204684533211639</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>268</v>
@@ -5879,19 +5879,19 @@
         <v>546131</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>513257</v>
+        <v>506331</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>584122</v>
+        <v>582323</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7111975411187221</v>
+        <v>0.7111975411187222</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.668387668740311</v>
+        <v>0.6593685709806683</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7606721637542282</v>
+        <v>0.7583283354612549</v>
       </c>
     </row>
     <row r="5">
@@ -5908,19 +5908,19 @@
         <v>68221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48764</v>
+        <v>48231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>93881</v>
+        <v>95156</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1672921336756473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1195809052695818</v>
+        <v>0.1182737776236476</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2302162854463166</v>
+        <v>0.2333448970745748</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -5929,19 +5929,19 @@
         <v>76176</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55659</v>
+        <v>55600</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>99506</v>
+        <v>98997</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2115357430286836</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1545600213906844</v>
+        <v>0.1543964414435453</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2763210436116125</v>
+        <v>0.2749083480274499</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -5950,19 +5950,19 @@
         <v>144397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>113970</v>
+        <v>113880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>177562</v>
+        <v>177694</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1880402768799027</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1484172532024551</v>
+        <v>0.1483005507641207</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2312300713305122</v>
+        <v>0.2314019645614722</v>
       </c>
     </row>
     <row r="6">
@@ -5979,19 +5979,19 @@
         <v>28504</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14923</v>
+        <v>14426</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48879</v>
+        <v>48244</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06989736445528007</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03659572522444073</v>
+        <v>0.03537563883878227</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.119861866802123</v>
+        <v>0.118306027135636</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -6000,19 +6000,19 @@
         <v>48872</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33355</v>
+        <v>32371</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70202</v>
+        <v>71121</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1357139012325128</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09262374879780419</v>
+        <v>0.08989273927703911</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1949446187540842</v>
+        <v>0.197496943024285</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -6021,19 +6021,19 @@
         <v>77376</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>54833</v>
+        <v>54567</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>102904</v>
+        <v>103342</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1007621820013751</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07140578998877206</v>
+        <v>0.07106012422103264</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1340058766502888</v>
+        <v>0.1345775287812287</v>
       </c>
     </row>
     <row r="7">
@@ -6125,19 +6125,19 @@
         <v>346655</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>319995</v>
+        <v>320319</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>370234</v>
+        <v>371620</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7269085939301286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6710045204090808</v>
+        <v>0.6716832616022793</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7763516135235888</v>
+        <v>0.7792581122414511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>355</v>
@@ -6146,19 +6146,19 @@
         <v>383922</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>363274</v>
+        <v>361159</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>402906</v>
+        <v>401115</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7651925490911454</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.724038720284396</v>
+        <v>0.7198224599304334</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8030288563250177</v>
+        <v>0.7994584312165566</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>577</v>
@@ -6167,19 +6167,19 @@
         <v>730578</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>696320</v>
+        <v>696932</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>758373</v>
+        <v>764718</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7465364906382538</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7115308414194632</v>
+        <v>0.712155987734425</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7749392236999483</v>
+        <v>0.7814222277430831</v>
       </c>
     </row>
     <row r="9">
@@ -6196,19 +6196,19 @@
         <v>85910</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>64784</v>
+        <v>67111</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>109999</v>
+        <v>110113</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1801459930537614</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1358459623123329</v>
+        <v>0.1407272588755119</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2306583366812955</v>
+        <v>0.2308991128705007</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>67</v>
@@ -6217,19 +6217,19 @@
         <v>74969</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>58739</v>
+        <v>60799</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>92653</v>
+        <v>95723</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1494201480143013</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1170713608345746</v>
+        <v>0.1211774533010445</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1846654806020151</v>
+        <v>0.1907853537735541</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>120</v>
@@ -6238,19 +6238,19 @@
         <v>160879</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>135635</v>
+        <v>132334</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>191640</v>
+        <v>191625</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1643930827244107</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1385974210696138</v>
+        <v>0.1352242326479847</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1958263537511937</v>
+        <v>0.1958112033465692</v>
       </c>
     </row>
     <row r="10">
@@ -6267,19 +6267,19 @@
         <v>44325</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29540</v>
+        <v>30014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64064</v>
+        <v>64465</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09294541301610994</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06194379268387781</v>
+        <v>0.06293622369286568</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1343379285505824</v>
+        <v>0.1351789209637244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -6288,19 +6288,19 @@
         <v>42842</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31488</v>
+        <v>30780</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56566</v>
+        <v>56645</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08538730289455314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06275865034623741</v>
+        <v>0.06134829242679445</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1127407807455865</v>
+        <v>0.1128990840849924</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -6309,19 +6309,19 @@
         <v>87166</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68455</v>
+        <v>68035</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112045</v>
+        <v>109410</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0890704266373355</v>
+        <v>0.08907042663733551</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06995058304843833</v>
+        <v>0.06952099191466116</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1144929839407208</v>
+        <v>0.1117998085004785</v>
       </c>
     </row>
     <row r="11">
@@ -6413,19 +6413,19 @@
         <v>462430</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>440726</v>
+        <v>438473</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>484713</v>
+        <v>483952</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7489284292646257</v>
+        <v>0.7489284292646258</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7137784287571253</v>
+        <v>0.7101297163677769</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7850180975550937</v>
+        <v>0.783785537789025</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>625</v>
@@ -6434,19 +6434,19 @@
         <v>456304</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>436767</v>
+        <v>438320</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>473512</v>
+        <v>474204</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7330817502643943</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7016938839907928</v>
+        <v>0.7041902186710307</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7607278003272321</v>
+        <v>0.7618403112183076</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1034</v>
@@ -6455,19 +6455,19 @@
         <v>918734</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>889518</v>
+        <v>888827</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>949244</v>
+        <v>949262</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7409731957832132</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7174100093438024</v>
+        <v>0.7168529567814771</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7655801397634211</v>
+        <v>0.7655944662914638</v>
       </c>
     </row>
     <row r="13">
@@ -6484,19 +6484,19 @@
         <v>94738</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76212</v>
+        <v>76248</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114336</v>
+        <v>114450</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1534330163589535</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1234284329817049</v>
+        <v>0.1234874679873436</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1851726794307087</v>
+        <v>0.1853571330341315</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -6505,19 +6505,19 @@
         <v>101960</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86972</v>
+        <v>86029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118143</v>
+        <v>117214</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1638053607119583</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1397265571163584</v>
+        <v>0.1382117542145708</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1898046409357932</v>
+        <v>0.1883122956818712</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>221</v>
@@ -6526,19 +6526,19 @@
         <v>196698</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174043</v>
+        <v>173465</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>224171</v>
+        <v>223864</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1586400645408822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1403685964311264</v>
+        <v>0.1399019766705308</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1807975147579229</v>
+        <v>0.1805500302491543</v>
       </c>
     </row>
     <row r="14">
@@ -6555,19 +6555,19 @@
         <v>60287</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46340</v>
+        <v>46108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>77866</v>
+        <v>77920</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09763855437642077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07504974250888465</v>
+        <v>0.07467483134820156</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1261080821282287</v>
+        <v>0.1261956732199496</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -6576,19 +6576,19 @@
         <v>64182</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53275</v>
+        <v>51330</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78328</v>
+        <v>78355</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1031128890236474</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08558898691823501</v>
+        <v>0.08246480702677547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1258397626612513</v>
+        <v>0.1258816331768203</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -6597,19 +6597,19 @@
         <v>124470</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>103812</v>
+        <v>105721</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>145541</v>
+        <v>145472</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1003867396759045</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08372614427294447</v>
+        <v>0.08526567799425928</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1173808714458766</v>
+        <v>0.1173255104224098</v>
       </c>
     </row>
     <row r="15">
@@ -6701,19 +6701,19 @@
         <v>492159</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>469113</v>
+        <v>469016</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>517667</v>
+        <v>519380</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7024648758115083</v>
+        <v>0.7024648758115081</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6695705747416948</v>
+        <v>0.6694324899746171</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7388732014220565</v>
+        <v>0.7413178304209087</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>838</v>
@@ -6722,19 +6722,19 @@
         <v>531580</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>512423</v>
+        <v>511205</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>550434</v>
+        <v>550267</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7220824490205858</v>
+        <v>0.7220824490205855</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6960594293857165</v>
+        <v>0.6944047257451242</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7476919712109864</v>
+        <v>0.7474654317805964</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1306</v>
@@ -6743,19 +6743,19 @@
         <v>1023740</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>991292</v>
+        <v>990367</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1056935</v>
+        <v>1051237</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7125164262104884</v>
+        <v>0.7125164262104885</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6899329715431498</v>
+        <v>0.6892891227253281</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7356199152703939</v>
+        <v>0.7316539872074406</v>
       </c>
     </row>
     <row r="17">
@@ -6772,19 +6772,19 @@
         <v>124525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>103976</v>
+        <v>104816</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>145907</v>
+        <v>147987</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1777364284489145</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1484064688394876</v>
+        <v>0.1496045732858172</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2082555501435032</v>
+        <v>0.2112243034892144</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>182</v>
@@ -6793,19 +6793,19 @@
         <v>122971</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>107217</v>
+        <v>106058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>140072</v>
+        <v>138251</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1670398293282513</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1456406105138329</v>
+        <v>0.1440655800190438</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.190268952961615</v>
+        <v>0.1877958522508381</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>301</v>
@@ -6814,19 +6814,19 @@
         <v>247496</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>220477</v>
+        <v>223669</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>275284</v>
+        <v>275787</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1722557604777465</v>
+        <v>0.1722557604777466</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1534503089523289</v>
+        <v>0.1556719891634426</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1915959779112197</v>
+        <v>0.1919458856549647</v>
       </c>
     </row>
     <row r="18">
@@ -6843,19 +6843,19 @@
         <v>83933</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>68026</v>
+        <v>67292</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>101413</v>
+        <v>100640</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1197986957395773</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09709489929431177</v>
+        <v>0.09604671850388967</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1447479984898401</v>
+        <v>0.1436448251049257</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>120</v>
@@ -6864,19 +6864,19 @@
         <v>81626</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>67828</v>
+        <v>69210</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95490</v>
+        <v>95058</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.110877721651163</v>
+        <v>0.1108777216511629</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09213501525188456</v>
+        <v>0.09401215233216229</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1297103857347533</v>
+        <v>0.1291239627833193</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>198</v>
@@ -6885,19 +6885,19 @@
         <v>165559</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>145108</v>
+        <v>144863</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>189716</v>
+        <v>189023</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.115227813311765</v>
+        <v>0.1152278133117651</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1009941309836528</v>
+        <v>0.1008236808796293</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.13204099942734</v>
+        <v>0.131558793923548</v>
       </c>
     </row>
     <row r="19">
@@ -6989,19 +6989,19 @@
         <v>461159</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>439806</v>
+        <v>439831</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>481084</v>
+        <v>481917</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7568092913423129</v>
+        <v>0.756809291342313</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7217669437824239</v>
+        <v>0.7218088657178728</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7895084716990221</v>
+        <v>0.7908760413417418</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>749</v>
@@ -7010,19 +7010,19 @@
         <v>448828</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>432344</v>
+        <v>432309</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>467041</v>
+        <v>466472</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7379974310600613</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7108925139714277</v>
+        <v>0.7108357582169584</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7679449109373158</v>
+        <v>0.7670095836164011</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1248</v>
@@ -7031,19 +7031,19 @@
         <v>909987</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>883578</v>
+        <v>882455</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>936069</v>
+        <v>935888</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7474124488164393</v>
+        <v>0.747412448816439</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7257214580214271</v>
+        <v>0.7247990751865743</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7688346111699222</v>
+        <v>0.7686854435307706</v>
       </c>
     </row>
     <row r="21">
@@ -7060,19 +7060,19 @@
         <v>96140</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>79528</v>
+        <v>80679</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>114604</v>
+        <v>115112</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1577752828379897</v>
+        <v>0.1577752828379896</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1305141000573701</v>
+        <v>0.1324023307645901</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1880766245641822</v>
+        <v>0.1889114688820933</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>142</v>
@@ -7081,19 +7081,19 @@
         <v>89513</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>76149</v>
+        <v>75821</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>103037</v>
+        <v>102110</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1471835963372452</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1252092708566526</v>
+        <v>0.1246705423870388</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1694211977593754</v>
+        <v>0.1678971431126156</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>246</v>
@@ -7102,19 +7102,19 @@
         <v>185653</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>162952</v>
+        <v>165574</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>206990</v>
+        <v>208883</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1524845562092776</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1338399765990951</v>
+        <v>0.1359929990198484</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1700102969820337</v>
+        <v>0.1715647898357052</v>
       </c>
     </row>
     <row r="22">
@@ -7131,19 +7131,19 @@
         <v>52048</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40124</v>
+        <v>40194</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65394</v>
+        <v>64302</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08541542581969727</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0658472195511651</v>
+        <v>0.06596191703098114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1073175824636415</v>
+        <v>0.105526242995866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>110</v>
@@ -7152,19 +7152,19 @@
         <v>69829</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58888</v>
+        <v>57662</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84443</v>
+        <v>82797</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1148189726026934</v>
+        <v>0.1148189726026935</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09682811587013726</v>
+        <v>0.09481266637138713</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1388483703483123</v>
+        <v>0.1361419086030804</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>170</v>
@@ -7173,19 +7173,19 @@
         <v>121877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>106094</v>
+        <v>104516</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>142830</v>
+        <v>140577</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1001029949742833</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08713979470582529</v>
+        <v>0.08584392820899975</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.117312850766111</v>
+        <v>0.1154623692028809</v>
       </c>
     </row>
     <row r="23">
@@ -7277,19 +7277,19 @@
         <v>300812</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>286259</v>
+        <v>284796</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>315133</v>
+        <v>315536</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7389503605779669</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.703201837837916</v>
+        <v>0.6996065114965454</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7741305265774061</v>
+        <v>0.7751212093880799</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>615</v>
@@ -7298,19 +7298,19 @@
         <v>323854</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>310874</v>
+        <v>310210</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>338169</v>
+        <v>337295</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7374291861155448</v>
+        <v>0.7374291861155445</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7078738022201596</v>
+        <v>0.7063607599228289</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7700256175528488</v>
+        <v>0.7680360872628166</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1030</v>
@@ -7319,19 +7319,19 @@
         <v>624666</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>604455</v>
+        <v>604477</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>642554</v>
+        <v>645533</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7381609347432156</v>
+        <v>0.7381609347432159</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.714278688872392</v>
+        <v>0.7143040725931463</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7592989958349585</v>
+        <v>0.7628199045046443</v>
       </c>
     </row>
     <row r="25">
@@ -7348,19 +7348,19 @@
         <v>72224</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>59685</v>
+        <v>61377</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85532</v>
+        <v>86031</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1774197742175929</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1466168799831641</v>
+        <v>0.1507738888511468</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2101121156647986</v>
+        <v>0.2113362932833344</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>145</v>
@@ -7369,19 +7369,19 @@
         <v>79072</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67870</v>
+        <v>67394</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90889</v>
+        <v>91726</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.180051326652922</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1545431061335289</v>
+        <v>0.153458577767952</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2069581661200662</v>
+        <v>0.2088642407052206</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>248</v>
@@ -7390,19 +7390,19 @@
         <v>151296</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>133488</v>
+        <v>133589</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>169628</v>
+        <v>168661</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1787854397143981</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1577416877824765</v>
+        <v>0.1578609668070226</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2004479972974336</v>
+        <v>0.1993050693118396</v>
       </c>
     </row>
     <row r="26">
@@ -7419,19 +7419,19 @@
         <v>34044</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25692</v>
+        <v>26106</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42936</v>
+        <v>44877</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08362986520444012</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06311256696406062</v>
+        <v>0.06412950766950386</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1054739608671075</v>
+        <v>0.1102423004846645</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -7440,19 +7440,19 @@
         <v>36240</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>27173</v>
+        <v>28612</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45099</v>
+        <v>44746</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.08251948723153334</v>
+        <v>0.08251948723153332</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06187391808548386</v>
+        <v>0.06515183702758857</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1026927245109998</v>
+        <v>0.1018893434537458</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>119</v>
@@ -7461,19 +7461,19 @@
         <v>70284</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>58897</v>
+        <v>58944</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>83457</v>
+        <v>82568</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.08305362554238616</v>
+        <v>0.08305362554238617</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0695978381563219</v>
+        <v>0.06965356475318078</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09862080197651997</v>
+        <v>0.09757006496323795</v>
       </c>
     </row>
     <row r="27">
@@ -7565,19 +7565,19 @@
         <v>215045</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>201047</v>
+        <v>201372</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>227967</v>
+        <v>227935</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.6944889346951491</v>
+        <v>0.6944889346951489</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6492825646569063</v>
+        <v>0.6503306057389645</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.736220225253045</v>
+        <v>0.7361187293324423</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>663</v>
@@ -7586,19 +7586,19 @@
         <v>344245</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>329410</v>
+        <v>329000</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>359215</v>
+        <v>357243</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7418823714989773</v>
+        <v>0.7418823714989771</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7099110930718769</v>
+        <v>0.709027084943581</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7741441193550959</v>
+        <v>0.7698939949493169</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>979</v>
@@ -7607,19 +7607,19 @@
         <v>559291</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>539030</v>
+        <v>539489</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>577164</v>
+        <v>578558</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7229139256858723</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6967252950672517</v>
+        <v>0.6973185482993365</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7460157217422538</v>
+        <v>0.7478172542980427</v>
       </c>
     </row>
     <row r="29">
@@ -7636,19 +7636,19 @@
         <v>71199</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>60047</v>
+        <v>59332</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>84222</v>
+        <v>83754</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2299383975434502</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.193923409474797</v>
+        <v>0.1916127585298674</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2719941005076547</v>
+        <v>0.2704844951508395</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>140</v>
@@ -7657,19 +7657,19 @@
         <v>76872</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>64684</v>
+        <v>66205</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>90684</v>
+        <v>89207</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1656661821713528</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1394001604730921</v>
+        <v>0.142677321367933</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1954336714318792</v>
+        <v>0.1922506384154372</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>246</v>
@@ -7678,19 +7678,19 @@
         <v>148071</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>132264</v>
+        <v>130964</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>165197</v>
+        <v>166614</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1913900822890028</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1709578254945812</v>
+        <v>0.1692779479057384</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2135257409372514</v>
+        <v>0.2153575804599073</v>
       </c>
     </row>
     <row r="30">
@@ -7707,19 +7707,19 @@
         <v>23401</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16822</v>
+        <v>16515</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>32250</v>
+        <v>32389</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07557266776140076</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05432771214729105</v>
+        <v>0.05333628212737389</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1041502423875356</v>
+        <v>0.1046010253094736</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>77</v>
@@ -7728,19 +7728,19 @@
         <v>42899</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>34209</v>
+        <v>33905</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>53452</v>
+        <v>52880</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.09245144632967009</v>
+        <v>0.09245144632967008</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0737245785101794</v>
+        <v>0.07306793054064871</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1151945700925119</v>
+        <v>0.1139612048489732</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>112</v>
@@ -7749,19 +7749,19 @@
         <v>66300</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>55500</v>
+        <v>55657</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>80949</v>
+        <v>80726</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.0856959920251249</v>
+        <v>0.08569599202512489</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07173615371351624</v>
+        <v>0.07193908271234242</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1046311728187392</v>
+        <v>0.1043430033649469</v>
       </c>
     </row>
     <row r="31">
@@ -7853,19 +7853,19 @@
         <v>2589330</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2531256</v>
+        <v>2530980</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2643398</v>
+        <v>2648270</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7337648008116096</v>
+        <v>0.7337648008116093</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7173078874965334</v>
+        <v>0.7172297073378675</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7490867893724441</v>
+        <v>0.7504672707167749</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3983</v>
@@ -7874,19 +7874,19 @@
         <v>2723796</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2668554</v>
+        <v>2673981</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2778348</v>
+        <v>2772083</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7298843552022475</v>
+        <v>0.7298843552022476</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7150814063464234</v>
+        <v>0.7165355485945526</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7445023502082274</v>
+        <v>0.7428236231186666</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6442</v>
@@ -7895,19 +7895,19 @@
         <v>5313125</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5242176</v>
+        <v>5234822</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5384922</v>
+        <v>5393941</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7317703337592339</v>
+        <v>0.7317703337592341</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7219985362106484</v>
+        <v>0.7209857598969429</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7416588314620817</v>
+        <v>0.7429009809105186</v>
       </c>
     </row>
     <row r="33">
@@ -7924,19 +7924,19 @@
         <v>612957</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>565578</v>
+        <v>564346</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>661973</v>
+        <v>662481</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1736998638420416</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1602737150428949</v>
+        <v>0.1599244560675578</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1875899557615452</v>
+        <v>0.1877340133736321</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>858</v>
@@ -7945,19 +7945,19 @@
         <v>621533</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>581693</v>
+        <v>581323</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>662781</v>
+        <v>663097</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1665496185764158</v>
+        <v>0.1665496185764159</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1558739218323794</v>
+        <v>0.1557746124213193</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1776027835801711</v>
+        <v>0.1776872357492156</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1455</v>
@@ -7966,19 +7966,19 @@
         <v>1234490</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1173389</v>
+        <v>1165602</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1300369</v>
+        <v>1297366</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1700247888547027</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1616094497697025</v>
+        <v>0.1605369255850664</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1790982945595355</v>
+        <v>0.1786846242507224</v>
       </c>
     </row>
     <row r="34">
@@ -7995,19 +7995,19 @@
         <v>326541</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>291187</v>
+        <v>293630</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>367351</v>
+        <v>371405</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.09253533534634889</v>
+        <v>0.09253533534634888</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0825167512110912</v>
+        <v>0.08320894188165891</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1040999616591277</v>
+        <v>0.1052486993874733</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>521</v>
@@ -8016,19 +8016,19 @@
         <v>386490</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>354780</v>
+        <v>348350</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>423209</v>
+        <v>419831</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1035660262213366</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09506882529079448</v>
+        <v>0.09334579823680818</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1134055467615257</v>
+        <v>0.1125002528412741</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>837</v>
@@ -8037,19 +8037,19 @@
         <v>713031</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>661824</v>
+        <v>659041</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>764578</v>
+        <v>764544</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.09820487738606345</v>
+        <v>0.09820487738606347</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09115219107520052</v>
+        <v>0.09076898392195146</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1053044253469403</v>
+        <v>0.1052997868239726</v>
       </c>
     </row>
     <row r="35">
